--- a/INFO6205-Final-Project/reports/TicTacToe_Benchmarking.xlsx
+++ b/INFO6205-Final-Project/reports/TicTacToe_Benchmarking.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MS\Coursework\Spring 2024\INFO 6205\Project Work\git_repo\INFO6205-Final-Project\INFO6205-Final-Project\reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meet\project-workspace\INFO6205-Final-Project\INFO6205-Final-Project\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81CBDF6-8FB5-4041-BAB9-DBC1928D0EF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B68C8ECF-9B0E-49EB-AC65-9F32705560BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="8" xr2:uid="{54FA45DD-14AA-48EA-A9FA-0C36DB7056AD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="7" xr2:uid="{54FA45DD-14AA-48EA-A9FA-0C36DB7056AD}"/>
   </bookViews>
   <sheets>
     <sheet name="iters vs time" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="1000 iters" sheetId="7" r:id="rId7"/>
     <sheet name="2000 iters" sheetId="8" r:id="rId8"/>
     <sheet name="5000 iters" sheetId="9" r:id="rId9"/>
+    <sheet name="Overall" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="9">
   <si>
     <t>Winner</t>
   </si>
@@ -59,6 +60,18 @@
   </si>
   <si>
     <t>Average Time Taken (in ms)</t>
+  </si>
+  <si>
+    <t>X  wins</t>
+  </si>
+  <si>
+    <t>O wins</t>
+  </si>
+  <si>
+    <t>Avg time(ms)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n </t>
   </si>
 </sst>
 </file>
@@ -522,12 +535,143 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34EF05F9-FF30-4E76-8776-2FC48B450932}">
+  <dimension ref="B2:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>5000</v>
+      </c>
+      <c r="D2">
+        <v>2000</v>
+      </c>
+      <c r="E2">
+        <v>1000</v>
+      </c>
+      <c r="F2">
+        <v>500</v>
+      </c>
+      <c r="G2">
+        <v>250</v>
+      </c>
+      <c r="H2">
+        <v>100</v>
+      </c>
+      <c r="I2">
+        <v>50</v>
+      </c>
+      <c r="J2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>641</v>
+      </c>
+      <c r="D3">
+        <v>245</v>
+      </c>
+      <c r="E3">
+        <v>113</v>
+      </c>
+      <c r="F3">
+        <v>57</v>
+      </c>
+      <c r="G3">
+        <v>24</v>
+      </c>
+      <c r="H3">
+        <v>10</v>
+      </c>
+      <c r="I3">
+        <v>6</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>4359</v>
+      </c>
+      <c r="D4">
+        <v>1755</v>
+      </c>
+      <c r="E4" s="1">
+        <v>887</v>
+      </c>
+      <c r="F4">
+        <v>443</v>
+      </c>
+      <c r="G4">
+        <v>226</v>
+      </c>
+      <c r="H4">
+        <v>90</v>
+      </c>
+      <c r="I4">
+        <v>44</v>
+      </c>
+      <c r="J4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>13.37</v>
+      </c>
+      <c r="D5">
+        <v>13.44</v>
+      </c>
+      <c r="E5">
+        <v>14.052</v>
+      </c>
+      <c r="F5">
+        <v>14.708</v>
+      </c>
+      <c r="G5">
+        <v>15.236000000000001</v>
+      </c>
+      <c r="H5">
+        <v>18.54</v>
+      </c>
+      <c r="I5">
+        <v>19.96</v>
+      </c>
+      <c r="J5">
+        <v>25.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC2F73D1-A0F1-4B55-8BA0-F893E3AA82EC}">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -738,6 +882,20 @@
       </c>
       <c r="B26">
         <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27">
+        <f>AVERAGE(B2:B26)</f>
+        <v>25.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -748,10 +906,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{470FD7A6-3A91-47FB-8CBF-D3A647E23279}">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1162,6 +1320,21 @@
       </c>
       <c r="B51">
         <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <f>COUNT(0,(A2:A51))</f>
+        <v>44</v>
+      </c>
+      <c r="B52">
+        <f>AVERAGE(B2:B51)</f>
+        <v>19.96</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1171,10 +1344,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{616E9A21-220F-4901-B315-D528D4CBE937}">
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="B103" sqref="B103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1985,6 +2158,21 @@
       </c>
       <c r="B101">
         <v>14</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <f>COUNT(0,(A2:A101))</f>
+        <v>90</v>
+      </c>
+      <c r="B102">
+        <f>AVERAGE(B2:B101)</f>
+        <v>18.54</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="1">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1994,10 +2182,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F70B50C7-832B-407D-B5B0-85669DD12F54}">
-  <dimension ref="A1:B251"/>
+  <dimension ref="A1:B253"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A242" workbookViewId="0">
+      <selection activeCell="B252" sqref="B252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4008,6 +4196,21 @@
       </c>
       <c r="B251">
         <v>15</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A252">
+        <f>COUNT(0,(A2:A251))</f>
+        <v>226</v>
+      </c>
+      <c r="B252">
+        <f>AVERAGE(B2:B251)</f>
+        <v>15.236000000000001</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A253" s="1">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -4017,10 +4220,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1EE8DD0-48DF-426A-9E51-2B506C00C6B3}">
-  <dimension ref="A1:B501"/>
+  <dimension ref="A1:B503"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A490" workbookViewId="0">
+      <selection activeCell="A502" sqref="A502"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8031,6 +8234,21 @@
       </c>
       <c r="B501">
         <v>12</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A502">
+        <f>COUNT(0,(A2:A501))</f>
+        <v>443</v>
+      </c>
+      <c r="B502">
+        <f>AVERAGE(B2:B501)</f>
+        <v>14.708</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A503" s="1">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -8040,10 +8258,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A8C428F-1436-4A25-896E-69202B90688B}">
-  <dimension ref="A1:B1001"/>
+  <dimension ref="A1:B1003"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A982" workbookViewId="0">
+      <selection activeCell="K1010" sqref="K1010"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16048,6 +16266,21 @@
       </c>
       <c r="B1001">
         <v>13</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1002">
+        <f>COUNT(0,(A2:A1001))</f>
+        <v>887</v>
+      </c>
+      <c r="B1002">
+        <f>AVERAGE(B2:B1001)</f>
+        <v>14.052</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1003" s="1">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -16057,10 +16290,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A66EAC5A-85A7-4BA8-932D-B297BE62C6B6}">
-  <dimension ref="A1:B2001"/>
+  <dimension ref="A1:B2002"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A1978" workbookViewId="0">
+      <selection activeCell="F1990" sqref="F1990:G1992"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -32059,6 +32292,16 @@
       </c>
       <c r="B2001">
         <v>16</v>
+      </c>
+    </row>
+    <row r="2002" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2002">
+        <f>COUNT(0,(A2:A2001))</f>
+        <v>1755</v>
+      </c>
+      <c r="B2002">
+        <f>AVERAGE(B2:B2001)</f>
+        <v>13.44</v>
       </c>
     </row>
   </sheetData>
@@ -32068,10 +32311,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C82BEC12-DBD0-4462-B015-2DDFBDD8C636}">
-  <dimension ref="A1:B5001"/>
+  <dimension ref="A1:B5003"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A4979" workbookViewId="0">
+      <selection activeCell="A5003" sqref="A5003"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -72070,7 +72313,23 @@
         <v>17</v>
       </c>
     </row>
+    <row r="5002" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5002">
+        <f>COUNT(0,(A2:A5001))</f>
+        <v>4359</v>
+      </c>
+      <c r="B5002">
+        <f>AVERAGE(B2:B5001)</f>
+        <v>13.336600000000001</v>
+      </c>
+    </row>
+    <row r="5003" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5003">
+        <v>641</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>